--- a/sampledb.xlsx
+++ b/sampledb.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="978" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t xml:space="preserve">question0</t>
   </si>
@@ -28,10 +28,16 @@
     <t xml:space="preserve">ans0</t>
   </si>
   <si>
+    <t xml:space="preserve">v</t>
+  </si>
+  <si>
     <t xml:space="preserve">question1</t>
   </si>
   <si>
     <t xml:space="preserve">ans1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o</t>
   </si>
   <si>
     <t xml:space="preserve">question2</t>
@@ -124,6 +130,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -205,15 +212,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A4:B18"/>
+  <dimension ref="A4:C18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -223,117 +230,132 @@
       <c r="B4" s="0" t="s">
         <v>1</v>
       </c>
+      <c r="C4" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
